--- a/tests/tools/data/validation.xlsx
+++ b/tests/tools/data/validation.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="297">
   <si>
     <t xml:space="preserve">facility_id</t>
   </si>
@@ -66,23 +66,7 @@
     <t xml:space="preserve">emission_unit</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">act:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Residential-plants-Open-fireplaces-wood</t>
-    </r>
+    <t xml:space="preserve">act:Residential-plants-Open-fireplaces-wood</t>
   </si>
   <si>
     <t xml:space="preserve">act:Residential-plants-pellet-stove-pellet</t>
@@ -943,7 +927,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -964,11 +948,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1043,7 +1022,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1134,7 +1113,7 @@
       <selection pane="topLeft" activeCell="R14" activeCellId="0" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.89"/>
@@ -1353,10 +1332,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="V1" activeCellId="0" sqref="V1"/>
+      <selection pane="bottomLeft" activeCell="V67" activeCellId="0" sqref="V67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.81"/>
@@ -4938,9 +4917,7 @@
       <c r="U67" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="V67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
@@ -5641,7 +5618,7 @@
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.98"/>
@@ -5757,7 +5734,7 @@
       <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
@@ -7251,7 +7228,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.17"/>
@@ -7314,7 +7291,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.06"/>

--- a/tests/tools/data/validation.xlsx
+++ b/tests/tools/data/validation.xlsx
@@ -10,10 +10,11 @@
   <sheets>
     <sheet name="AreaSource" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="PointSource" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="EmissionFactor" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Timevar" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="CodeSet" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="ActivityCode" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="GridSource" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="EmissionFactor" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Timevar" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="CodeSet" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="ActivityCode" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="313">
   <si>
     <t xml:space="preserve">facility_id</t>
   </si>
@@ -648,6 +649,60 @@
     <t xml:space="preserve">ООМБУ Лазо Мицев Рале3</t>
   </si>
   <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rastername</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activitycode_codeset1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activitycode_codeset2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gridsource1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raster_PM25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gridsource_rasters/vasterbotten_conc_PM25_1990010100_1991010100.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tag1_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gridsource2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raster_{subst}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gridsource_rasters/vasterbotten_conc_{subst}_1990010100_1991010100.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tag2_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gridsource3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gridsource4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invalidunit</t>
+  </si>
+  <si>
     <t xml:space="preserve">activity_name</t>
   </si>
   <si>
@@ -834,9 +889,6 @@
     <t xml:space="preserve">December</t>
   </si>
   <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
     <t xml:space="preserve">slug</t>
   </si>
   <si>
@@ -868,9 +920,6 @@
   </si>
   <si>
     <t xml:space="preserve">label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
   </si>
   <si>
     <t xml:space="preserve">PublicPower</t>
@@ -1113,7 +1162,7 @@
       <selection pane="topLeft" activeCell="R14" activeCellId="0" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.89"/>
@@ -1335,7 +1384,7 @@
       <selection pane="bottomLeft" activeCell="V67" activeCellId="0" sqref="V67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.81"/>
@@ -5612,105 +5661,190 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="74.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="34.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1019" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="0" t="s">
         <v>211</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="0" t="s">
         <v>212</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>4600</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="0" t="s">
         <v>215</v>
       </c>
+      <c r="G2" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>212</v>
+      <c r="A3" s="0" t="s">
+        <v>218</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>484</v>
-      </c>
-      <c r="D3" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>217</v>
+      <c r="F3" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>212</v>
+      <c r="A4" s="0" t="s">
+        <v>222</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>215</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="D5" s="0" t="s">
+      <c r="G5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="K5" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>215</v>
-      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5728,1483 +5862,105 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.98"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H1" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="I1" s="4" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="0" t="n">
+        <v>4600</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>100</v>
+      <c r="E2" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>484</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="4" t="s">
-        <v>235</v>
+      <c r="A5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>236</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>100</v>
+        <v>900</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="J27" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="K27" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L27" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M27" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N27" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G38" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G39" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I39" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G40" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H40" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I40" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G41" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H41" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I41" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G42" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H42" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I42" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G43" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H43" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I43" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G44" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H44" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I44" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G45" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H45" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I45" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="M53" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="N53" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E54" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G54" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H54" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I54" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="K54" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L54" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M54" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N54" s="0" t="n">
-        <v>100</v>
-      </c>
+      <c r="E8" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7222,51 +5978,1482 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.17"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>271</v>
+        <v>242</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C24" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="4" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="C25" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C26" s="4" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="D26" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="E26" s="4" t="s">
         <v>277</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L54" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M54" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N54" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -7285,13 +7472,76 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.17"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>294</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.06"/>
@@ -7300,156 +7550,156 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>63</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>68</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>80</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>111</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>123</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>140</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
